--- a/Diff fra benchmark.xlsx
+++ b/Diff fra benchmark.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/ptx996_alumni_ku_dk/Documents/Bachelorprojekt/GitHub/Bachelor-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B615911E-252A-704B-95D5-C0CE77B117B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B615911E-252A-704B-95D5-C0CE77B117B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D6F1826-E498-2242-9E7C-63374CE20AF1}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="760" windowWidth="28240" windowHeight="16960" xr2:uid="{3BBE8AE6-C96E-4F4A-96AB-90C40D428E72}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>K</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>zeta Rand</t>
+  </si>
+  <si>
+    <t>Procent af kartel Q</t>
+  </si>
+  <si>
+    <t>Procent af kartel Rand</t>
   </si>
 </sst>
 </file>
@@ -127,6 +133,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2494837-BF8B-FC44-AB78-AD858490C4D5}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +510,14 @@
       <c r="P1" t="s">
         <v>12</v>
       </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -555,8 +571,12 @@
         <f>(I2-J2)/(0.125-J2)</f>
         <v>0.12989045383411585</v>
       </c>
+      <c r="Q2">
+        <f>H2/0.125</f>
+        <v>0.87280000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -610,8 +630,12 @@
         <f t="shared" ref="P3:P6" si="6">(I3-J3)/(0.125-J3)</f>
         <v>0.11796733212341184</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q6" si="7">H3/0.125</f>
+        <v>0.81840000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>24</v>
       </c>
@@ -665,8 +689,12 @@
         <f t="shared" si="6"/>
         <v>8.333333333333319E-2</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="7"/>
+        <v>0.84399999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>48</v>
       </c>
@@ -720,8 +748,12 @@
         <f t="shared" si="6"/>
         <v>5.0328227571116192E-2</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>0.86639999999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -774,6 +806,10 @@
       <c r="P6">
         <f t="shared" si="6"/>
         <v>2.7459954233409762E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>0.80800000000000005</v>
       </c>
     </row>
   </sheetData>
